--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Grp-Nmbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Grp-Nmbr.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Nmbr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -516,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,16 +531,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2114156666666667</v>
+        <v>0.1207093333333333</v>
       </c>
       <c r="H2">
-        <v>0.634247</v>
+        <v>0.362128</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1354557203266995</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1354557203266995</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,60 +549,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2376816666666667</v>
+        <v>0.01533833333333333</v>
       </c>
       <c r="N2">
-        <v>0.7130449999999999</v>
+        <v>0.046015</v>
       </c>
       <c r="O2">
-        <v>0.9393789687244751</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.939378968724475</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.05024962801277778</v>
+        <v>0.001851479991111111</v>
       </c>
       <c r="R2">
-        <v>0.452246652115</v>
+        <v>0.01666331992</v>
       </c>
       <c r="S2">
-        <v>0.9393789687244751</v>
+        <v>0.1354557203266995</v>
       </c>
       <c r="T2">
-        <v>0.939378968724475</v>
+        <v>0.1354557203266995</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2114156666666667</v>
+        <v>0.7704256666666667</v>
       </c>
       <c r="H3">
-        <v>0.634247</v>
+        <v>2.311277</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8645442796733005</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8645442796733006</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,22 +617,22 @@
         <v>0.046015</v>
       </c>
       <c r="O3">
-        <v>0.060621031275525</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.060621031275525</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.003242763967222223</v>
+        <v>0.01181704568388889</v>
       </c>
       <c r="R3">
-        <v>0.029184875705</v>
+        <v>0.106353411155</v>
       </c>
       <c r="S3">
-        <v>0.060621031275525</v>
+        <v>0.8645442796733005</v>
       </c>
       <c r="T3">
-        <v>0.060621031275525</v>
+        <v>0.8645442796733006</v>
       </c>
     </row>
   </sheetData>
